--- a/UBER.xlsx
+++ b/UBER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A535D50A-DF34-4B51-B0AA-C3FCF4BF0F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174837F9-8EE4-4B42-B7E6-81D8005F4349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29730" yWindow="1785" windowWidth="26445" windowHeight="18135" xr2:uid="{0DF986AF-6823-4C0B-834E-29DBBC392D30}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{0DF986AF-6823-4C0B-834E-29DBBC392D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Price</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>CEO: Dara Khosrowshahi</t>
+  </si>
+  <si>
+    <t>Bookings</t>
+  </si>
+  <si>
+    <t>CFO: Prashanth Mahendra-Rajah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Delivery</t>
   </si>
 </sst>
 </file>
@@ -558,15 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78EF98D-1B39-4528-8E59-490EB52EFEAA}">
-  <dimension ref="B2:L10"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -574,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>66.510000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>67.47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -591,16 +601,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>140050.72720575001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>142072.20815774999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -612,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -623,22 +633,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>132805.72720575001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+        <v>134827.20815774999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -649,28 +664,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A158C0-5513-48E1-8F59-B890C6B4BCDB}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -708,473 +723,494 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>8823</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H7" s="7">
         <v>9230</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I7" s="7">
         <v>9292</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
         <v>10131</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L7" s="7">
         <v>10700</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M7" s="7">
         <v>11188</v>
       </c>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>5259</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5515</v>
-      </c>
-      <c r="I4" s="4">
-        <v>5626</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>6168</v>
-      </c>
-      <c r="L4" s="4">
-        <v>6488</v>
-      </c>
-      <c r="M4" s="4">
-        <v>6761</v>
-      </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <f>+G3-G4</f>
-        <v>3564</v>
-      </c>
-      <c r="H5" s="4">
-        <f>+H3-H4</f>
-        <v>3715</v>
-      </c>
-      <c r="I5" s="4">
-        <f>+I3-I4</f>
-        <v>3666</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <f>+K3-K4</f>
-        <v>3963</v>
-      </c>
-      <c r="L5" s="4">
-        <f>+L3-L4</f>
-        <v>4212</v>
-      </c>
-      <c r="M5" s="4">
-        <f>+M3-M4</f>
-        <v>4427</v>
-      </c>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>640</v>
-      </c>
-      <c r="H6" s="4">
-        <v>664</v>
-      </c>
-      <c r="I6" s="4">
-        <v>683</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
-        <v>685</v>
-      </c>
-      <c r="L6" s="4">
-        <v>682</v>
-      </c>
-      <c r="M6" s="4">
-        <v>687</v>
-      </c>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>1262</v>
-      </c>
-      <c r="H7" s="4">
-        <v>808</v>
-      </c>
-      <c r="I7" s="4">
-        <v>941</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>917</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1115</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1096</v>
-      </c>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
-        <v>775</v>
+        <v>5259</v>
       </c>
       <c r="H8" s="4">
-        <v>491</v>
+        <v>5515</v>
       </c>
       <c r="I8" s="4">
-        <v>797</v>
+        <v>5626</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
-        <v>790</v>
+        <v>6168</v>
       </c>
       <c r="L8" s="4">
-        <v>760</v>
+        <v>6488</v>
       </c>
       <c r="M8" s="4">
-        <v>774</v>
+        <v>6761</v>
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <v>942</v>
+        <f>+G7-G8</f>
+        <v>3564</v>
       </c>
       <c r="H9" s="4">
-        <v>208</v>
+        <f>+H7-H8</f>
+        <v>3715</v>
       </c>
       <c r="I9" s="4">
-        <v>646</v>
+        <f>+I7-I8</f>
+        <v>3666</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
-        <v>1209</v>
+        <f>+K7-K8</f>
+        <v>3963</v>
       </c>
       <c r="L9" s="4">
-        <v>686</v>
+        <f>+L7-L8</f>
+        <v>4212</v>
       </c>
       <c r="M9" s="4">
-        <v>630</v>
+        <f>+M7-M8</f>
+        <v>4427</v>
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
-        <f>SUM(G6:G9)</f>
-        <v>3619</v>
+        <v>640</v>
       </c>
       <c r="H10" s="4">
-        <f>SUM(H6:H9)</f>
-        <v>2171</v>
+        <v>664</v>
       </c>
       <c r="I10" s="4">
-        <f>SUM(I6:I9)</f>
-        <v>3067</v>
+        <v>683</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4">
-        <f>SUM(K6:K9)</f>
-        <v>3601</v>
+        <v>685</v>
       </c>
       <c r="L10" s="4">
-        <f>SUM(L6:L9)</f>
-        <v>3243</v>
+        <v>682</v>
       </c>
       <c r="M10" s="4">
-        <f>SUM(M6:M9)</f>
-        <v>3187</v>
+        <v>687</v>
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <f>+G5-G10</f>
-        <v>-55</v>
+        <v>1262</v>
       </c>
       <c r="H11" s="4">
-        <f>+H5-H10</f>
-        <v>1544</v>
+        <v>808</v>
       </c>
       <c r="I11" s="4">
-        <f>+I5-I10</f>
-        <v>599</v>
+        <v>941</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4">
-        <f>+K5-K10</f>
-        <v>362</v>
+        <v>917</v>
       </c>
       <c r="L11" s="4">
-        <f>+L5-L10</f>
-        <v>969</v>
+        <v>1115</v>
       </c>
       <c r="M11" s="4">
-        <f>+M5-M10</f>
-        <v>1240</v>
+        <v>1096</v>
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
+        <v>775</v>
+      </c>
+      <c r="H12" s="4">
+        <v>491</v>
+      </c>
+      <c r="I12" s="4">
+        <v>797</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>790</v>
+      </c>
+      <c r="L12" s="4">
+        <v>760</v>
+      </c>
+      <c r="M12" s="4">
+        <v>774</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>942</v>
+      </c>
+      <c r="H13" s="4">
+        <v>208</v>
+      </c>
+      <c r="I13" s="4">
+        <v>646</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>1209</v>
+      </c>
+      <c r="L13" s="4">
+        <v>686</v>
+      </c>
+      <c r="M13" s="4">
+        <v>630</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <f>SUM(G10:G13)</f>
+        <v>3619</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM(H10:H13)</f>
+        <v>2171</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM(I10:I13)</f>
+        <v>3067</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <f>SUM(K10:K13)</f>
+        <v>3601</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUM(L10:L13)</f>
+        <v>3243</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUM(M10:M13)</f>
+        <v>3187</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <f>+G9-G14</f>
+        <v>-55</v>
+      </c>
+      <c r="H15" s="4">
+        <f>+H9-H14</f>
+        <v>1544</v>
+      </c>
+      <c r="I15" s="4">
+        <f>+I9-I14</f>
+        <v>599</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <f>+K9-K14</f>
+        <v>362</v>
+      </c>
+      <c r="L15" s="4">
+        <f>+L9-L14</f>
+        <v>969</v>
+      </c>
+      <c r="M15" s="4">
+        <f>+M9-M14</f>
+        <v>1240</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <f>-168+292</f>
         <v>124</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H16" s="4">
         <f>-144+273</f>
         <v>129</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I16" s="4">
         <f>-166-52</f>
         <v>-218</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
         <f>-124-678</f>
         <v>-802</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L16" s="4">
         <f>-136+420</f>
         <v>284</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M16" s="4">
         <f>-143+1851</f>
         <v>1708</v>
       </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="4">
-        <f>+G12+G11</f>
+      <c r="G17" s="4">
+        <f>+G16+G15</f>
         <v>69</v>
       </c>
-      <c r="H13" s="4">
-        <f>+H12+H11</f>
+      <c r="H17" s="4">
+        <f>+H16+H15</f>
         <v>1673</v>
       </c>
-      <c r="I13" s="4">
-        <f>+I12+I11</f>
+      <c r="I17" s="4">
+        <f>+I16+I15</f>
         <v>381</v>
       </c>
-      <c r="K13" s="4">
-        <f>+K12+K11</f>
+      <c r="K17" s="4">
+        <f>+K16+K15</f>
         <v>-440</v>
       </c>
-      <c r="L13" s="4">
-        <f>+L12+L11</f>
+      <c r="L17" s="4">
+        <f>+L16+L15</f>
         <v>1253</v>
       </c>
-      <c r="M13" s="4">
-        <f>+M12+M11</f>
+      <c r="M17" s="4">
+        <f>+M16+M15</f>
         <v>2948</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G18" s="3">
         <f>55-36</f>
         <v>19</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H18" s="3">
         <f>65-4</f>
         <v>61</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I18" s="3">
         <f>-40+3-2</f>
         <v>-39</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K18" s="3">
         <f>29+4-9</f>
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L18" s="3">
         <f>57+12-7</f>
         <v>62</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M18" s="3">
         <f>158-12+13</f>
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="4">
-        <f>+G13-G14</f>
+      <c r="G19" s="4">
+        <f>+G17-G18</f>
         <v>50</v>
       </c>
-      <c r="H15" s="4">
-        <f>+H13-H14</f>
+      <c r="H19" s="4">
+        <f>+H17-H18</f>
         <v>1612</v>
       </c>
-      <c r="I15" s="4">
-        <f>+I13-I14</f>
+      <c r="I19" s="4">
+        <f>+I17-I18</f>
         <v>420</v>
       </c>
-      <c r="K15" s="4">
-        <f>+K13-K14</f>
+      <c r="K19" s="4">
+        <f>+K17-K18</f>
         <v>-464</v>
       </c>
-      <c r="L15" s="4">
-        <f>+L13-L14</f>
+      <c r="L19" s="4">
+        <f>+L17-L18</f>
         <v>1191</v>
       </c>
-      <c r="M15" s="4">
-        <f>+M13-M14</f>
+      <c r="M19" s="4">
+        <f>+M17-M18</f>
         <v>2789</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="5">
-        <f>+G15/G17</f>
+      <c r="G20" s="5">
+        <f>+G19/G21</f>
         <v>2.4881105636714956E-2</v>
       </c>
-      <c r="H16" s="5">
-        <f>+H15/H17</f>
+      <c r="H20" s="5">
+        <f>+H19/H21</f>
         <v>0.77527395497928364</v>
       </c>
-      <c r="I16" s="5">
-        <f>+I15/I17</f>
+      <c r="I20" s="5">
+        <f>+I19/I21</f>
         <v>0.19919572355238066</v>
       </c>
-      <c r="K16" s="5">
-        <f>+K15/K17</f>
+      <c r="K20" s="5">
+        <f>+K19/K21</f>
         <v>-0.22305890678060616</v>
       </c>
-      <c r="L16" s="5">
-        <f>+L15/L17</f>
+      <c r="L20" s="5">
+        <f>+L19/L21</f>
         <v>0.55394859301243393</v>
       </c>
-      <c r="M16" s="5">
-        <f>+M15/M17</f>
+      <c r="M20" s="5">
+        <f>+M19/M21</f>
         <v>1.2945203126900124</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G21" s="4">
         <v>2009.557</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H21" s="4">
         <v>2079.2649999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I21" s="4">
         <v>2108.4789999999998</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K21" s="4">
         <v>2080.1680000000001</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L21" s="4">
         <v>2150.0189999999998</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M21" s="4">
         <v>2154.4659999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="8">
-        <f>+K3/G3-1</f>
+      <c r="K23" s="8">
+        <f>+K7/G7-1</f>
         <v>0.14824889493369597</v>
       </c>
-      <c r="L19" s="8">
-        <f>+L3/H3-1</f>
+      <c r="L23" s="8">
+        <f>+L7/H7-1</f>
         <v>0.15926327193932832</v>
       </c>
-      <c r="M19" s="8">
-        <f>+M3/I3-1</f>
+      <c r="M23" s="8">
+        <f>+M7/I7-1</f>
         <v>0.20404649160568233</v>
       </c>
     </row>

--- a/UBER.xlsx
+++ b/UBER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174837F9-8EE4-4B42-B7E6-81D8005F4349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEA0D33-9A2C-4C47-9B34-49B544BA9879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{0DF986AF-6823-4C0B-834E-29DBBC392D30}"/>
+    <workbookView xWindow="-24105" yWindow="1125" windowWidth="22005" windowHeight="15465" activeTab="1" xr2:uid="{0DF986AF-6823-4C0B-834E-29DBBC392D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Price</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t xml:space="preserve">  Delivery</t>
+  </si>
+  <si>
+    <t>MAU</t>
+  </si>
+  <si>
+    <t>Trips</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Freight</t>
   </si>
 </sst>
 </file>
@@ -572,11 +590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78EF98D-1B39-4528-8E59-490EB52EFEAA}">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -584,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>67.47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -601,16 +621,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>142072.20815774999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+        <v>147378.59565674997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -622,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -633,26 +653,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>134827.20815774999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>140133.59565674997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>34</v>
       </c>
@@ -664,28 +684,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A158C0-5513-48E1-8F59-B890C6B4BCDB}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -723,494 +743,647 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>142</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
+        <v>161</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J5" s="3">
         <v>37.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>17903</v>
+      </c>
+      <c r="J6" s="4">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>21002</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
-        <v>8823</v>
-      </c>
-      <c r="H7" s="7">
-        <v>9230</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9292</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7">
-        <v>10131</v>
-      </c>
-      <c r="L7" s="7">
-        <v>10700</v>
-      </c>
-      <c r="M7" s="7">
-        <v>11188</v>
-      </c>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="4">
+        <v>16094</v>
+      </c>
+      <c r="M7" s="4">
+        <v>18663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>5259</v>
-      </c>
-      <c r="H8" s="4">
-        <v>5515</v>
+        <v>47</v>
       </c>
       <c r="I8" s="4">
-        <v>5626</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>6168</v>
-      </c>
-      <c r="L8" s="4">
-        <v>6488</v>
+        <v>1284</v>
       </c>
       <c r="M8" s="4">
-        <v>6761</v>
-      </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <f>+G7-G8</f>
-        <v>3564</v>
-      </c>
-      <c r="H9" s="4">
-        <f>+H7-H8</f>
-        <v>3715</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4">
-        <f>+I7-I8</f>
-        <v>3666</v>
+        <v>2441</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <f>+K7-K8</f>
-        <v>3963</v>
-      </c>
-      <c r="L9" s="4">
-        <f>+L7-L8</f>
-        <v>4212</v>
-      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="4">
-        <f>+M7-M8</f>
-        <v>4427</v>
+        <v>2868</v>
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>640</v>
-      </c>
-      <c r="H10" s="4">
-        <v>664</v>
-      </c>
-      <c r="I10" s="4">
-        <v>683</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
-        <v>685</v>
-      </c>
-      <c r="L10" s="4">
-        <v>682</v>
-      </c>
-      <c r="M10" s="4">
-        <v>687</v>
-      </c>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4">
-        <v>1262</v>
-      </c>
-      <c r="H11" s="4">
-        <v>808</v>
-      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="4">
-        <v>941</v>
+        <v>5071</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4">
-        <v>917</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1115</v>
-      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="4">
-        <v>1096</v>
+        <v>6409</v>
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <v>775</v>
-      </c>
-      <c r="H12" s="4">
-        <v>491</v>
-      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4">
-        <v>797</v>
+        <v>2935</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4">
-        <v>790</v>
-      </c>
-      <c r="L12" s="4">
-        <v>760</v>
-      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="4">
-        <v>774</v>
+        <v>3470</v>
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4">
-        <v>942</v>
-      </c>
-      <c r="H13" s="4">
-        <v>208</v>
-      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="4">
-        <v>646</v>
+        <v>1286</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4">
-        <v>1209</v>
-      </c>
-      <c r="L13" s="4">
-        <v>686</v>
-      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="4">
-        <v>630</v>
+        <v>1309</v>
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <f>SUM(G10:G13)</f>
-        <v>3619</v>
-      </c>
-      <c r="H14" s="4">
-        <f>SUM(H10:H13)</f>
-        <v>2171</v>
-      </c>
-      <c r="I14" s="4">
-        <f>SUM(I10:I13)</f>
-        <v>3067</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <f>SUM(K10:K13)</f>
-        <v>3601</v>
-      </c>
-      <c r="L14" s="4">
-        <f>SUM(L10:L13)</f>
-        <v>3243</v>
-      </c>
-      <c r="M14" s="4">
-        <f>SUM(M10:M13)</f>
-        <v>3187</v>
-      </c>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <f>+G9-G14</f>
-        <v>-55</v>
-      </c>
-      <c r="H15" s="4">
-        <f>+H9-H14</f>
-        <v>1544</v>
-      </c>
-      <c r="I15" s="4">
-        <f>+I9-I14</f>
-        <v>599</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
-        <f>+K9-K14</f>
-        <v>362</v>
-      </c>
-      <c r="L15" s="4">
-        <f>+L9-L14</f>
-        <v>969</v>
-      </c>
-      <c r="M15" s="4">
-        <f>+M9-M14</f>
-        <v>1240</v>
-      </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>8823</v>
+      </c>
+      <c r="H15" s="7">
+        <v>9230</v>
+      </c>
+      <c r="I15" s="7">
+        <f>SUM(I11:I13)</f>
+        <v>9292</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
+        <v>10131</v>
+      </c>
+      <c r="L15" s="7">
+        <v>10700</v>
+      </c>
+      <c r="M15" s="7">
+        <f>SUM(M11:M13)</f>
+        <v>11188</v>
+      </c>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
+        <v>5259</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5515</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5626</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
+        <v>6168</v>
+      </c>
+      <c r="L16" s="4">
+        <v>6488</v>
+      </c>
+      <c r="M16" s="4">
+        <v>6761</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <f>+G15-G16</f>
+        <v>3564</v>
+      </c>
+      <c r="H17" s="4">
+        <f>+H15-H16</f>
+        <v>3715</v>
+      </c>
+      <c r="I17" s="4">
+        <f>+I15-I16</f>
+        <v>3666</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
+        <f>+K15-K16</f>
+        <v>3963</v>
+      </c>
+      <c r="L17" s="4">
+        <f>+L15-L16</f>
+        <v>4212</v>
+      </c>
+      <c r="M17" s="4">
+        <f>+M15-M16</f>
+        <v>4427</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>640</v>
+      </c>
+      <c r="H18" s="4">
+        <v>664</v>
+      </c>
+      <c r="I18" s="4">
+        <v>683</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
+        <v>685</v>
+      </c>
+      <c r="L18" s="4">
+        <v>682</v>
+      </c>
+      <c r="M18" s="4">
+        <v>687</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>1262</v>
+      </c>
+      <c r="H19" s="4">
+        <v>808</v>
+      </c>
+      <c r="I19" s="4">
+        <v>941</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
+        <v>917</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1115</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1096</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>775</v>
+      </c>
+      <c r="H20" s="4">
+        <v>491</v>
+      </c>
+      <c r="I20" s="4">
+        <v>797</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <v>790</v>
+      </c>
+      <c r="L20" s="4">
+        <v>760</v>
+      </c>
+      <c r="M20" s="4">
+        <v>774</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>942</v>
+      </c>
+      <c r="H21" s="4">
+        <v>208</v>
+      </c>
+      <c r="I21" s="4">
+        <v>646</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
+        <v>1209</v>
+      </c>
+      <c r="L21" s="4">
+        <v>686</v>
+      </c>
+      <c r="M21" s="4">
+        <v>630</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <f>SUM(G18:G21)</f>
+        <v>3619</v>
+      </c>
+      <c r="H22" s="4">
+        <f>SUM(H18:H21)</f>
+        <v>2171</v>
+      </c>
+      <c r="I22" s="4">
+        <f>SUM(I18:I21)</f>
+        <v>3067</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <f>SUM(K18:K21)</f>
+        <v>3601</v>
+      </c>
+      <c r="L22" s="4">
+        <f>SUM(L18:L21)</f>
+        <v>3243</v>
+      </c>
+      <c r="M22" s="4">
+        <f>SUM(M18:M21)</f>
+        <v>3187</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <f>+G17-G22</f>
+        <v>-55</v>
+      </c>
+      <c r="H23" s="4">
+        <f>+H17-H22</f>
+        <v>1544</v>
+      </c>
+      <c r="I23" s="4">
+        <f>+I17-I22</f>
+        <v>599</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
+        <f>+K17-K22</f>
+        <v>362</v>
+      </c>
+      <c r="L23" s="4">
+        <f>+L17-L22</f>
+        <v>969</v>
+      </c>
+      <c r="M23" s="4">
+        <f>+M17-M22</f>
+        <v>1240</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
         <f>-168+292</f>
         <v>124</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H24" s="4">
         <f>-144+273</f>
         <v>129</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I24" s="4">
         <f>-166-52</f>
         <v>-218</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
         <f>-124-678</f>
         <v>-802</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L24" s="4">
         <f>-136+420</f>
         <v>284</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M24" s="4">
         <f>-143+1851</f>
         <v>1708</v>
       </c>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4">
-        <f>+G16+G15</f>
+      <c r="G25" s="4">
+        <f>+G24+G23</f>
         <v>69</v>
       </c>
-      <c r="H17" s="4">
-        <f>+H16+H15</f>
+      <c r="H25" s="4">
+        <f>+H24+H23</f>
         <v>1673</v>
       </c>
-      <c r="I17" s="4">
-        <f>+I16+I15</f>
+      <c r="I25" s="4">
+        <f>+I24+I23</f>
         <v>381</v>
       </c>
-      <c r="K17" s="4">
-        <f>+K16+K15</f>
+      <c r="K25" s="4">
+        <f>+K24+K23</f>
         <v>-440</v>
       </c>
-      <c r="L17" s="4">
-        <f>+L16+L15</f>
+      <c r="L25" s="4">
+        <f>+L24+L23</f>
         <v>1253</v>
       </c>
-      <c r="M17" s="4">
-        <f>+M16+M15</f>
+      <c r="M25" s="4">
+        <f>+M24+M23</f>
         <v>2948</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G26" s="3">
         <f>55-36</f>
         <v>19</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H26" s="3">
         <f>65-4</f>
         <v>61</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I26" s="3">
         <f>-40+3-2</f>
         <v>-39</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K26" s="3">
         <f>29+4-9</f>
         <v>24</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L26" s="3">
         <f>57+12-7</f>
         <v>62</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M26" s="3">
         <f>158-12+13</f>
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="4">
-        <f>+G17-G18</f>
+      <c r="G27" s="4">
+        <f>+G25-G26</f>
         <v>50</v>
       </c>
-      <c r="H19" s="4">
-        <f>+H17-H18</f>
+      <c r="H27" s="4">
+        <f>+H25-H26</f>
         <v>1612</v>
       </c>
-      <c r="I19" s="4">
-        <f>+I17-I18</f>
+      <c r="I27" s="4">
+        <f>+I25-I26</f>
         <v>420</v>
       </c>
-      <c r="K19" s="4">
-        <f>+K17-K18</f>
+      <c r="K27" s="4">
+        <f>+K25-K26</f>
         <v>-464</v>
       </c>
-      <c r="L19" s="4">
-        <f>+L17-L18</f>
+      <c r="L27" s="4">
+        <f>+L25-L26</f>
         <v>1191</v>
       </c>
-      <c r="M19" s="4">
-        <f>+M17-M18</f>
+      <c r="M27" s="4">
+        <f>+M25-M26</f>
         <v>2789</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="5">
-        <f>+G19/G21</f>
+      <c r="G28" s="5">
+        <f>+G27/G29</f>
         <v>2.4881105636714956E-2</v>
       </c>
-      <c r="H20" s="5">
-        <f>+H19/H21</f>
+      <c r="H28" s="5">
+        <f>+H27/H29</f>
         <v>0.77527395497928364</v>
       </c>
-      <c r="I20" s="5">
-        <f>+I19/I21</f>
+      <c r="I28" s="5">
+        <f>+I27/I29</f>
         <v>0.19919572355238066</v>
       </c>
-      <c r="K20" s="5">
-        <f>+K19/K21</f>
+      <c r="K28" s="5">
+        <f>+K27/K29</f>
         <v>-0.22305890678060616</v>
       </c>
-      <c r="L20" s="5">
-        <f>+L19/L21</f>
+      <c r="L28" s="5">
+        <f>+L27/L29</f>
         <v>0.55394859301243393</v>
       </c>
-      <c r="M20" s="5">
-        <f>+M19/M21</f>
+      <c r="M28" s="5">
+        <f>+M27/M29</f>
         <v>1.2945203126900124</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G29" s="4">
         <v>2009.557</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H29" s="4">
         <v>2079.2649999999999</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I29" s="4">
         <v>2108.4789999999998</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K29" s="4">
         <v>2080.1680000000001</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L29" s="4">
         <v>2150.0189999999998</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M29" s="4">
         <v>2154.4659999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="8">
-        <f>+K7/G7-1</f>
+      <c r="K31" s="8">
+        <f>+K15/G15-1</f>
         <v>0.14824889493369597</v>
       </c>
-      <c r="L23" s="8">
-        <f>+L7/H7-1</f>
+      <c r="L31" s="8">
+        <f>+L15/H15-1</f>
         <v>0.15926327193932832</v>
       </c>
-      <c r="M23" s="8">
-        <f>+M7/I7-1</f>
+      <c r="M31" s="8">
+        <f>+M15/I15-1</f>
         <v>0.20404649160568233</v>
       </c>
     </row>

--- a/UBER.xlsx
+++ b/UBER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEA0D33-9A2C-4C47-9B34-49B544BA9879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9003759A-0183-41C0-96A3-497264990ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24105" yWindow="1125" windowWidth="22005" windowHeight="15465" activeTab="1" xr2:uid="{0DF986AF-6823-4C0B-834E-29DBBC392D30}"/>
+    <workbookView xWindow="100" yWindow="760" windowWidth="17020" windowHeight="17980" activeTab="1" xr2:uid="{0DF986AF-6823-4C0B-834E-29DBBC392D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Price</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t xml:space="preserve">  Freight</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Bookings y/y</t>
+  </si>
+  <si>
+    <t>Trips y/y</t>
+  </si>
+  <si>
+    <t>Mobility Bookings y/y</t>
+  </si>
+  <si>
+    <t>Mobility Revenue y/y</t>
   </si>
 </sst>
 </file>
@@ -269,6 +293,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34192</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34192</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>39077</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507F6E3E-A4A7-F025-A548-8D9A977D8E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9412654" y="58615"/>
+          <a:ext cx="0" cy="8367347"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,9 +673,9 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -607,7 +686,7 @@
         <v>69.989999999999995</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -621,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -630,7 +709,7 @@
         <v>147378.59565674997</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -642,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -653,7 +732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -662,17 +741,17 @@
         <v>140133.59565674997</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>34</v>
       </c>
@@ -684,28 +763,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A158C0-5513-48E1-8F59-B890C6B4BCDB}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -742,8 +821,20 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
@@ -756,15 +847,19 @@
       <c r="I3" s="4">
         <v>142</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4">
+        <v>150</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4">
         <v>161</v>
       </c>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -778,15 +873,28 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="3">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="4">
+        <f>+I6+I7+I8</f>
+        <v>35281</v>
+      </c>
+      <c r="J5" s="4">
+        <f>+J6+J7+J8</f>
+        <v>37575</v>
+      </c>
+      <c r="M5" s="4">
+        <f>+M6+M7+M8</f>
+        <v>40973</v>
+      </c>
+      <c r="N5" s="4">
+        <f>+N6+N7+N8</f>
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -800,38 +908,56 @@
         <v>17903</v>
       </c>
       <c r="J6" s="4">
-        <v>19.3</v>
+        <v>19285</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4">
         <v>21002</v>
       </c>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="4">
+        <v>22798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="4">
         <v>16094</v>
       </c>
+      <c r="J7" s="4">
+        <v>17011</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="4">
         <v>18663</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="4">
+        <v>20126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="4">
         <v>1284</v>
       </c>
+      <c r="J8" s="4">
+        <v>1279</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="4">
         <v>1308</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="4">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
@@ -844,15 +970,19 @@
       <c r="I9" s="4">
         <v>2441</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <v>2601</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
         <v>2868</v>
       </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="4">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
@@ -865,15 +995,19 @@
       <c r="I11" s="4">
         <v>5071</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <v>5537</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
         <v>6409</v>
       </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="4">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -886,15 +1020,19 @@
       <c r="I12" s="4">
         <v>2935</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>3119</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
         <v>3470</v>
       </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="4">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
@@ -907,15 +1045,19 @@
       <c r="I13" s="4">
         <v>1286</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <v>1280</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
         <v>1309</v>
       </c>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="4">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -933,7 +1075,9 @@
         <f>SUM(I11:I13)</f>
         <v>9292</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="7">
+        <v>9936</v>
+      </c>
       <c r="K15" s="7">
         <v>10131</v>
       </c>
@@ -944,9 +1088,11 @@
         <f>SUM(M11:M13)</f>
         <v>11188</v>
       </c>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N15" s="7">
+        <v>11959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -963,7 +1109,9 @@
       <c r="I16" s="4">
         <v>5626</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>6057</v>
+      </c>
       <c r="K16" s="4">
         <v>6168</v>
       </c>
@@ -973,9 +1121,11 @@
       <c r="M16" s="4">
         <v>6761</v>
       </c>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="4">
+        <v>7234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -995,7 +1145,10 @@
         <f>+I15-I16</f>
         <v>3666</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4">
+        <f>+J15-J16</f>
+        <v>3879</v>
+      </c>
       <c r="K17" s="4">
         <f>+K15-K16</f>
         <v>3963</v>
@@ -1008,9 +1161,12 @@
         <f>+M15-M16</f>
         <v>4427</v>
       </c>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="4">
+        <f>+N15-N16</f>
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1027,7 +1183,9 @@
       <c r="I18" s="4">
         <v>683</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4">
+        <v>702</v>
+      </c>
       <c r="K18" s="4">
         <v>685</v>
       </c>
@@ -1037,9 +1195,11 @@
       <c r="M18" s="4">
         <v>687</v>
       </c>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="4">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1216,9 @@
       <c r="I19" s="4">
         <v>941</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="4">
+        <v>935</v>
+      </c>
       <c r="K19" s="4">
         <v>917</v>
       </c>
@@ -1066,9 +1228,11 @@
       <c r="M19" s="4">
         <v>1096</v>
       </c>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="4">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1249,9 @@
       <c r="I20" s="4">
         <v>797</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4">
+        <v>784</v>
+      </c>
       <c r="K20" s="4">
         <v>790</v>
       </c>
@@ -1095,9 +1261,11 @@
       <c r="M20" s="4">
         <v>774</v>
       </c>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="4">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +1282,9 @@
       <c r="I21" s="4">
         <v>646</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4">
+        <v>603</v>
+      </c>
       <c r="K21" s="4">
         <v>1209</v>
       </c>
@@ -1124,9 +1294,11 @@
       <c r="M21" s="4">
         <v>630</v>
       </c>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="4">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1318,10 @@
         <f>SUM(I18:I21)</f>
         <v>3067</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <f>SUM(J18:J21)</f>
+        <v>3024</v>
+      </c>
       <c r="K22" s="4">
         <f>SUM(K18:K21)</f>
         <v>3601</v>
@@ -1159,9 +1334,12 @@
         <f>SUM(M18:M21)</f>
         <v>3187</v>
       </c>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="4">
+        <f>SUM(N18:N21)</f>
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1181,7 +1359,10 @@
         <f>+I17-I22</f>
         <v>599</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <f>+J17-J22</f>
+        <v>855</v>
+      </c>
       <c r="K23" s="4">
         <f>+K17-K22</f>
         <v>362</v>
@@ -1194,9 +1375,12 @@
         <f>+M17-M22</f>
         <v>1240</v>
       </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="4">
+        <f>+N17-N22</f>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1216,7 +1400,10 @@
         <f>-166-52</f>
         <v>-218</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4">
+        <f>-155+1331</f>
+        <v>1176</v>
+      </c>
       <c r="K24" s="4">
         <f>-124-678</f>
         <v>-802</v>
@@ -1229,9 +1416,12 @@
         <f>-143+1851</f>
         <v>1708</v>
       </c>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="4">
+        <f>-117+256</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1247,6 +1437,10 @@
         <f>+I24+I23</f>
         <v>381</v>
       </c>
+      <c r="J25" s="4">
+        <f>+J24+J23</f>
+        <v>2031</v>
+      </c>
       <c r="K25" s="4">
         <f>+K24+K23</f>
         <v>-440</v>
@@ -1259,8 +1453,12 @@
         <f>+M24+M23</f>
         <v>2948</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="4">
+        <f>+N24+N23</f>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1276,6 +1474,9 @@
         <f>-40+3-2</f>
         <v>-39</v>
       </c>
+      <c r="J26" s="3">
+        <v>133</v>
+      </c>
       <c r="K26" s="3">
         <f>29+4-9</f>
         <v>24</v>
@@ -1288,8 +1489,11 @@
         <f>158-12+13</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1305,6 +1509,10 @@
         <f>+I25-I26</f>
         <v>420</v>
       </c>
+      <c r="J27" s="4">
+        <f>+J25-J26</f>
+        <v>1898</v>
+      </c>
       <c r="K27" s="4">
         <f>+K25-K26</f>
         <v>-464</v>
@@ -1317,8 +1525,12 @@
         <f>+M25-M26</f>
         <v>2789</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="4">
+        <f>+N25-N26</f>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1334,6 +1546,10 @@
         <f>+I27/I29</f>
         <v>0.19919572355238066</v>
       </c>
+      <c r="J28" s="5">
+        <f>+J27/J29</f>
+        <v>0.89446913633773795</v>
+      </c>
       <c r="K28" s="5">
         <f>+K27/K29</f>
         <v>-0.22305890678060616</v>
@@ -1346,8 +1562,12 @@
         <f>+M27/M29</f>
         <v>1.2945203126900124</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="5">
+        <f>+N27/N29</f>
+        <v>0.50340287266522399</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1360,6 +1580,9 @@
       <c r="I29" s="4">
         <v>2108.4789999999998</v>
       </c>
+      <c r="J29" s="4">
+        <v>2121.9290000000001</v>
+      </c>
       <c r="K29" s="4">
         <v>2080.1680000000001</v>
       </c>
@@ -1369,8 +1592,11 @@
       <c r="M29" s="4">
         <v>2154.4659999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="4">
+        <v>2141.4259999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1385,6 +1611,56 @@
       <c r="M31" s="8">
         <f>+M15/I15-1</f>
         <v>0.20404649160568233</v>
+      </c>
+      <c r="N31" s="8">
+        <f>+N15/J15-1</f>
+        <v>0.20360305958132052</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8">
+        <f>+M5/I5-1</f>
+        <v>0.16133329554150966</v>
+      </c>
+      <c r="N32" s="8">
+        <f>+N5/J5-1</f>
+        <v>0.17623419827012632</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="8">
+        <f>+N9/J9-1</f>
+        <v>0.17954632833525563</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="8">
+        <f>+M6/I6-1</f>
+        <v>0.17309948053398871</v>
+      </c>
+      <c r="N34" s="8">
+        <f>+N6/J6-1</f>
+        <v>0.18216230230749297</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="8">
+        <f>+N11/J11-1</f>
+        <v>0.24814881704894343</v>
       </c>
     </row>
   </sheetData>
@@ -1392,5 +1668,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{97C91947-3928-45E1-B0A0-1313631C12C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/UBER.xlsx
+++ b/UBER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9003759A-0183-41C0-96A3-497264990ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1347F6-6960-423E-9B1E-DBA5D8E682C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="760" windowWidth="17020" windowHeight="17980" activeTab="1" xr2:uid="{0DF986AF-6823-4C0B-834E-29DBBC392D30}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{0DF986AF-6823-4C0B-834E-29DBBC392D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Price</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Mobility Revenue y/y</t>
+  </si>
+  <si>
+    <t>Take Rate</t>
   </si>
 </sst>
 </file>
@@ -763,13 +766,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A158C0-5513-48E1-8F59-B890C6B4BCDB}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1092,7 @@
         <v>11188</v>
       </c>
       <c r="N15" s="7">
+        <f>11959</f>
         <v>11959</v>
       </c>
     </row>
@@ -1125,7 +1129,7 @@
         <v>7234</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1134,39 +1138,39 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
-        <f>+G15-G16</f>
+        <f t="shared" ref="G17:N17" si="0">+G15-G16</f>
         <v>3564</v>
       </c>
       <c r="H17" s="4">
-        <f>+H15-H16</f>
+        <f t="shared" si="0"/>
         <v>3715</v>
       </c>
       <c r="I17" s="4">
-        <f>+I15-I16</f>
+        <f t="shared" si="0"/>
         <v>3666</v>
       </c>
       <c r="J17" s="4">
-        <f>+J15-J16</f>
+        <f t="shared" si="0"/>
         <v>3879</v>
       </c>
       <c r="K17" s="4">
-        <f>+K15-K16</f>
+        <f t="shared" si="0"/>
         <v>3963</v>
       </c>
       <c r="L17" s="4">
-        <f>+L15-L16</f>
+        <f t="shared" si="0"/>
         <v>4212</v>
       </c>
       <c r="M17" s="4">
-        <f>+M15-M16</f>
+        <f t="shared" si="0"/>
         <v>4427</v>
       </c>
       <c r="N17" s="4">
-        <f>+N15-N16</f>
+        <f t="shared" si="0"/>
         <v>4725</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1199,7 +1203,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1298,7 +1302,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1307,39 +1311,39 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
-        <f>SUM(G18:G21)</f>
+        <f t="shared" ref="G22:N22" si="1">SUM(G18:G21)</f>
         <v>3619</v>
       </c>
       <c r="H22" s="4">
-        <f>SUM(H18:H21)</f>
+        <f t="shared" si="1"/>
         <v>2171</v>
       </c>
       <c r="I22" s="4">
-        <f>SUM(I18:I21)</f>
+        <f t="shared" si="1"/>
         <v>3067</v>
       </c>
       <c r="J22" s="4">
-        <f>SUM(J18:J21)</f>
+        <f t="shared" si="1"/>
         <v>3024</v>
       </c>
       <c r="K22" s="4">
-        <f>SUM(K18:K21)</f>
+        <f t="shared" si="1"/>
         <v>3601</v>
       </c>
       <c r="L22" s="4">
-        <f>SUM(L18:L21)</f>
+        <f t="shared" si="1"/>
         <v>3243</v>
       </c>
       <c r="M22" s="4">
-        <f>SUM(M18:M21)</f>
+        <f t="shared" si="1"/>
         <v>3187</v>
       </c>
       <c r="N22" s="4">
-        <f>SUM(N18:N21)</f>
+        <f t="shared" si="1"/>
         <v>3786</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1348,39 +1352,39 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <f>+G17-G22</f>
+        <f t="shared" ref="G23:N23" si="2">+G17-G22</f>
         <v>-55</v>
       </c>
       <c r="H23" s="4">
-        <f>+H17-H22</f>
+        <f t="shared" si="2"/>
         <v>1544</v>
       </c>
       <c r="I23" s="4">
-        <f>+I17-I22</f>
+        <f t="shared" si="2"/>
         <v>599</v>
       </c>
       <c r="J23" s="4">
-        <f>+J17-J22</f>
+        <f t="shared" si="2"/>
         <v>855</v>
       </c>
       <c r="K23" s="4">
-        <f>+K17-K22</f>
+        <f t="shared" si="2"/>
         <v>362</v>
       </c>
       <c r="L23" s="4">
-        <f>+L17-L22</f>
+        <f t="shared" si="2"/>
         <v>969</v>
       </c>
       <c r="M23" s="4">
-        <f>+M17-M22</f>
+        <f t="shared" si="2"/>
         <v>1240</v>
       </c>
       <c r="N23" s="4">
-        <f>+N17-N22</f>
+        <f t="shared" si="2"/>
         <v>939</v>
       </c>
     </row>
-    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1421,44 +1425,44 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="4">
-        <f>+G24+G23</f>
+        <f t="shared" ref="G25:N25" si="3">+G24+G23</f>
         <v>69</v>
       </c>
       <c r="H25" s="4">
-        <f>+H24+H23</f>
+        <f t="shared" si="3"/>
         <v>1673</v>
       </c>
       <c r="I25" s="4">
-        <f>+I24+I23</f>
+        <f t="shared" si="3"/>
         <v>381</v>
       </c>
       <c r="J25" s="4">
-        <f>+J24+J23</f>
+        <f t="shared" si="3"/>
         <v>2031</v>
       </c>
       <c r="K25" s="4">
-        <f>+K24+K23</f>
+        <f t="shared" si="3"/>
         <v>-440</v>
       </c>
       <c r="L25" s="4">
-        <f>+L24+L23</f>
+        <f t="shared" si="3"/>
         <v>1253</v>
       </c>
       <c r="M25" s="4">
-        <f>+M24+M23</f>
+        <f t="shared" si="3"/>
         <v>2948</v>
       </c>
       <c r="N25" s="4">
-        <f>+N24+N23</f>
+        <f t="shared" si="3"/>
         <v>1078</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1489,85 +1493,87 @@
         <f>158-12+13</f>
         <v>159</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="4">
+        <f>+N25*0.2</f>
+        <v>215.60000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="4">
-        <f>+G25-G26</f>
+        <f t="shared" ref="G27:N27" si="4">+G25-G26</f>
         <v>50</v>
       </c>
       <c r="H27" s="4">
-        <f>+H25-H26</f>
+        <f t="shared" si="4"/>
         <v>1612</v>
       </c>
       <c r="I27" s="4">
-        <f>+I25-I26</f>
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="J27" s="4">
-        <f>+J25-J26</f>
+        <f t="shared" si="4"/>
         <v>1898</v>
       </c>
       <c r="K27" s="4">
-        <f>+K25-K26</f>
+        <f t="shared" si="4"/>
         <v>-464</v>
       </c>
       <c r="L27" s="4">
-        <f>+L25-L26</f>
+        <f t="shared" si="4"/>
         <v>1191</v>
       </c>
       <c r="M27" s="4">
-        <f>+M25-M26</f>
+        <f t="shared" si="4"/>
         <v>2789</v>
       </c>
       <c r="N27" s="4">
-        <f>+N25-N26</f>
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>862.4</v>
+      </c>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="5">
-        <f>+G27/G29</f>
+        <f t="shared" ref="G28:N28" si="5">+G27/G29</f>
         <v>2.4881105636714956E-2</v>
       </c>
       <c r="H28" s="5">
-        <f>+H27/H29</f>
+        <f t="shared" si="5"/>
         <v>0.77527395497928364</v>
       </c>
       <c r="I28" s="5">
-        <f>+I27/I29</f>
+        <f t="shared" si="5"/>
         <v>0.19919572355238066</v>
       </c>
       <c r="J28" s="5">
-        <f>+J27/J29</f>
+        <f t="shared" si="5"/>
         <v>0.89446913633773795</v>
       </c>
       <c r="K28" s="5">
-        <f>+K27/K29</f>
+        <f t="shared" si="5"/>
         <v>-0.22305890678060616</v>
       </c>
       <c r="L28" s="5">
-        <f>+L27/L29</f>
+        <f t="shared" si="5"/>
         <v>0.55394859301243393</v>
       </c>
       <c r="M28" s="5">
-        <f>+M27/M29</f>
+        <f t="shared" si="5"/>
         <v>1.2945203126900124</v>
       </c>
       <c r="N28" s="5">
-        <f>+N27/N29</f>
-        <v>0.50340287266522399</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0.40272229813217919</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>2141.4259999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>0.20360305958132052</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>52</v>
       </c>
@@ -1661,6 +1667,15 @@
       <c r="N35" s="8">
         <f>+N11/J11-1</f>
         <v>0.24814881704894343</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="8">
+        <f>N11/N6</f>
+        <v>0.3031406263707343</v>
       </c>
     </row>
   </sheetData>

--- a/UBER.xlsx
+++ b/UBER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1347F6-6960-423E-9B1E-DBA5D8E682C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49999564-F6A1-4B02-96B3-6B713552DD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{0DF986AF-6823-4C0B-834E-29DBBC392D30}"/>
+    <workbookView xWindow="52840" yWindow="1730" windowWidth="17990" windowHeight="14360" activeTab="1" xr2:uid="{0DF986AF-6823-4C0B-834E-29DBBC392D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0B66456F-1131-4A98-9565-E98585CFE1AA}</author>
+  </authors>
+  <commentList>
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{0B66456F-1131-4A98-9565-E98585CFE1AA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q125 guidance: 45.75-47.25</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>Price</t>
   </si>
@@ -208,13 +226,124 @@
   </si>
   <si>
     <t>Take Rate</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Insurance Reserves</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Unrealized Gain</t>
+  </si>
+  <si>
+    <t>Unrealized FX</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Buybacks</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Bad Debt</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>NCI</t>
+  </si>
+  <si>
+    <t>Loans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -233,6 +362,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -257,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -278,6 +413,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -302,16 +445,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>34192</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:rowOff>19202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>34192</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>39077</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16675</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>162034</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -326,8 +469,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9412654" y="58615"/>
-          <a:ext cx="0" cy="8367347"/>
+          <a:off x="9554813" y="19202"/>
+          <a:ext cx="0" cy="14121591"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -351,6 +494,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{1A54AB40-FAFB-4C4B-BC58-E9D48CF625D8}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -668,17 +817,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P5" dT="2025-07-15T16:40:20.81" personId="{1A54AB40-FAFB-4C4B-BC58-E9D48CF625D8}" id="{0B66456F-1131-4A98-9565-E98585CFE1AA}">
+    <text>Q125 guidance: 45.75-47.25</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78EF98D-1B39-4528-8E59-490EB52EFEAA}">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -686,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -697,64 +852,63 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>2105.7093249999998</v>
+        <v>2123</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>147378.59565674997</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+        <v>195316</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <f>6150+2913+933+7921+314</f>
-        <v>18231</v>
+        <v>25949</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="2">
-        <v>10986</v>
+        <v>8350</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>140133.59565674997</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>177717</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>34</v>
       </c>
@@ -765,29 +919,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A158C0-5513-48E1-8F59-B890C6B4BCDB}">
-  <dimension ref="A1:R36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A158C0-5513-48E1-8F59-B890C6B4BCDB}">
+  <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomRight" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -837,7 +992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
@@ -846,23 +1001,32 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>137</v>
+      </c>
       <c r="I3" s="4">
         <v>142</v>
       </c>
       <c r="J3" s="4">
         <v>150</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="4">
+        <v>149</v>
+      </c>
+      <c r="L3" s="4">
+        <v>156</v>
+      </c>
       <c r="M3" s="4">
         <v>161</v>
       </c>
       <c r="N3" s="4">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -876,9 +1040,13 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>38</v>
+      </c>
+      <c r="H5" s="4">
+        <f>+H6+H7+H8</f>
+        <v>33601</v>
       </c>
       <c r="I5" s="4">
         <f>+I6+I7+I8</f>
@@ -888,6 +1056,14 @@
         <f>+J6+J7+J8</f>
         <v>37575</v>
       </c>
+      <c r="K5" s="4">
+        <f>+K6+K7+K8</f>
+        <v>37651</v>
+      </c>
+      <c r="L5" s="4">
+        <f>+L6+L7+L8</f>
+        <v>39955</v>
+      </c>
       <c r="M5" s="4">
         <f>+M6+M7+M8</f>
         <v>40973</v>
@@ -896,8 +1072,15 @@
         <f>+N6+N7+N8</f>
         <v>44197</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="4">
+        <f>+O6+O7+O8</f>
+        <v>42818</v>
+      </c>
+      <c r="P5" s="2">
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -906,61 +1089,90 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>16728</v>
+      </c>
       <c r="I6" s="4">
         <v>17903</v>
       </c>
       <c r="J6" s="4">
         <v>19285</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="4">
+        <v>18670</v>
+      </c>
+      <c r="L6" s="4">
+        <v>20554</v>
+      </c>
       <c r="M6" s="4">
         <v>21002</v>
       </c>
       <c r="N6" s="4">
         <v>22798</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O6" s="2">
+        <v>21182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>41</v>
       </c>
+      <c r="H7" s="3">
+        <v>15595</v>
+      </c>
       <c r="I7" s="4">
         <v>16094</v>
       </c>
       <c r="J7" s="4">
         <v>17011</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="4">
+        <v>17699</v>
+      </c>
+      <c r="L7" s="4">
+        <v>18126</v>
+      </c>
       <c r="M7" s="4">
         <v>18663</v>
       </c>
       <c r="N7" s="4">
         <v>20126</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O7" s="4">
+        <v>20377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H8" s="3">
+        <v>1278</v>
+      </c>
       <c r="I8" s="4">
         <v>1284</v>
       </c>
       <c r="J8" s="4">
         <v>1279</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="4">
+        <v>1282</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1275</v>
+      </c>
       <c r="M8" s="4">
         <v>1308</v>
       </c>
       <c r="N8" s="4">
         <v>1273</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="2">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
@@ -969,713 +1181,1830 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>2282</v>
+      </c>
       <c r="I9" s="4">
         <v>2441</v>
       </c>
       <c r="J9" s="4">
         <v>2601</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="4">
+        <v>2572</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2765</v>
+      </c>
       <c r="M9" s="4">
         <v>2868</v>
       </c>
       <c r="N9" s="4">
         <v>3068</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="2">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>5071</v>
-      </c>
-      <c r="J11" s="4">
-        <v>5537</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
-        <v>6409</v>
-      </c>
-      <c r="N11" s="4">
-        <v>6911</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
-        <v>2935</v>
-      </c>
-      <c r="J12" s="4">
-        <v>3119</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
-        <v>3470</v>
-      </c>
-      <c r="N12" s="4">
-        <v>3773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="8">
+        <f>+H17/H5</f>
+        <v>0.27469420552959734</v>
+      </c>
+      <c r="I11" s="8">
+        <f>+I17/I5</f>
+        <v>0.26337121963663163</v>
+      </c>
+      <c r="J11" s="8">
+        <f>+J17/J5</f>
+        <v>0.2644311377245509</v>
+      </c>
+      <c r="K11" s="8">
+        <f>+K17/K5</f>
+        <v>0.26907651855196407</v>
+      </c>
+      <c r="L11" s="8">
+        <f>+L17/L5</f>
+        <v>0.2678012764359905</v>
+      </c>
+      <c r="M11" s="8">
+        <f>+M17/M5</f>
+        <v>0.2730578673760769</v>
+      </c>
+      <c r="N11" s="8">
+        <f>+N17/N5</f>
+        <v>0.27058397628798336</v>
+      </c>
+      <c r="O11" s="8">
+        <f>+O17/O5</f>
+        <v>0.2693493390630109</v>
+      </c>
+      <c r="P11" s="8">
+        <f>+P17/P5</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>4894</v>
+      </c>
       <c r="I13" s="4">
+        <v>5071</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5537</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5633</v>
+      </c>
+      <c r="L13" s="4">
+        <v>6134</v>
+      </c>
+      <c r="M13" s="4">
+        <v>6409</v>
+      </c>
+      <c r="N13" s="4">
+        <v>6911</v>
+      </c>
+      <c r="O13" s="2">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>3057</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2935</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3119</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3214</v>
+      </c>
+      <c r="L14" s="4">
+        <v>3293</v>
+      </c>
+      <c r="M14" s="4">
+        <v>3470</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3773</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <v>1279</v>
+      </c>
+      <c r="I15" s="4">
         <v>1286</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J15" s="4">
         <v>1280</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
+      <c r="K15" s="4">
+        <v>1284</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1273</v>
+      </c>
+      <c r="M15" s="4">
         <v>1309</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N15" s="4">
         <v>1275</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="O15" s="2">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
         <v>8823</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H17" s="7">
+        <f>SUM(H13:H15)</f>
         <v>9230</v>
       </c>
-      <c r="I15" s="7">
-        <f>SUM(I11:I13)</f>
+      <c r="I17" s="7">
+        <f>SUM(I13:I15)</f>
         <v>9292</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J17" s="7">
+        <f>SUM(J13:J15)</f>
         <v>9936</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K17" s="7">
+        <f>SUM(K13:K15)</f>
         <v>10131</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L17" s="7">
+        <f>SUM(L13:L15)</f>
         <v>10700</v>
       </c>
-      <c r="M15" s="7">
-        <f>SUM(M11:M13)</f>
+      <c r="M17" s="7">
+        <f>SUM(M13:M15)</f>
         <v>11188</v>
       </c>
-      <c r="N15" s="7">
-        <f>11959</f>
+      <c r="N17" s="7">
+        <f>SUM(N13:N15)</f>
         <v>11959</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="O17" s="7">
+        <f>SUM(O13:O15)</f>
+        <v>11533</v>
+      </c>
+      <c r="P17" s="7">
+        <f>+P5*0.27</f>
+        <v>12555</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>5259</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5515</v>
-      </c>
-      <c r="I16" s="4">
-        <v>5626</v>
-      </c>
-      <c r="J16" s="4">
-        <v>6057</v>
-      </c>
-      <c r="K16" s="4">
-        <v>6168</v>
-      </c>
-      <c r="L16" s="4">
-        <v>6488</v>
-      </c>
-      <c r="M16" s="4">
-        <v>6761</v>
-      </c>
-      <c r="N16" s="4">
-        <v>7234</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <f t="shared" ref="G17:N17" si="0">+G15-G16</f>
-        <v>3564</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>3715</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
-        <v>3666</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>3879</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="0"/>
-        <v>3963</v>
-      </c>
-      <c r="L17" s="4">
-        <f t="shared" si="0"/>
-        <v>4212</v>
-      </c>
-      <c r="M17" s="4">
-        <f t="shared" si="0"/>
-        <v>4427</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
-        <v>4725</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <v>640</v>
+        <v>5259</v>
       </c>
       <c r="H18" s="4">
-        <v>664</v>
+        <v>5515</v>
       </c>
       <c r="I18" s="4">
-        <v>683</v>
+        <v>5626</v>
       </c>
       <c r="J18" s="4">
-        <v>702</v>
+        <v>6057</v>
       </c>
       <c r="K18" s="4">
-        <v>685</v>
+        <v>6168</v>
       </c>
       <c r="L18" s="4">
-        <v>682</v>
+        <v>6488</v>
       </c>
       <c r="M18" s="4">
-        <v>687</v>
+        <v>6761</v>
       </c>
       <c r="N18" s="4">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7234</v>
+      </c>
+      <c r="O18" s="2">
+        <v>6937</v>
+      </c>
+      <c r="P18" s="2">
+        <f>+P17-P19</f>
+        <v>7533</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <v>1262</v>
+        <f t="shared" ref="G19:N19" si="0">+G17-G18</f>
+        <v>3564</v>
       </c>
       <c r="H19" s="4">
-        <v>808</v>
+        <f t="shared" si="0"/>
+        <v>3715</v>
       </c>
       <c r="I19" s="4">
-        <v>941</v>
+        <f t="shared" si="0"/>
+        <v>3666</v>
       </c>
       <c r="J19" s="4">
-        <v>935</v>
+        <f t="shared" si="0"/>
+        <v>3879</v>
       </c>
       <c r="K19" s="4">
-        <v>917</v>
+        <f t="shared" si="0"/>
+        <v>3963</v>
       </c>
       <c r="L19" s="4">
-        <v>1115</v>
+        <f t="shared" si="0"/>
+        <v>4212</v>
       </c>
       <c r="M19" s="4">
-        <v>1096</v>
+        <f t="shared" si="0"/>
+        <v>4427</v>
       </c>
       <c r="N19" s="4">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4725</v>
+      </c>
+      <c r="O19" s="2">
+        <f>+O17-O18</f>
+        <v>4596</v>
+      </c>
+      <c r="P19" s="2">
+        <f>+P17*0.4</f>
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
-        <v>775</v>
+        <v>640</v>
       </c>
       <c r="H20" s="4">
-        <v>491</v>
+        <v>664</v>
       </c>
       <c r="I20" s="4">
-        <v>797</v>
+        <v>683</v>
       </c>
       <c r="J20" s="4">
-        <v>784</v>
+        <v>702</v>
       </c>
       <c r="K20" s="4">
-        <v>790</v>
+        <v>685</v>
       </c>
       <c r="L20" s="4">
-        <v>760</v>
+        <v>682</v>
       </c>
       <c r="M20" s="4">
-        <v>774</v>
+        <v>687</v>
       </c>
       <c r="N20" s="4">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+      <c r="O20" s="2">
+        <v>668</v>
+      </c>
+      <c r="P20" s="2">
+        <f>+L20</f>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
-        <v>942</v>
+        <v>1262</v>
       </c>
       <c r="H21" s="4">
-        <v>208</v>
+        <v>808</v>
       </c>
       <c r="I21" s="4">
-        <v>646</v>
+        <v>941</v>
       </c>
       <c r="J21" s="4">
-        <v>603</v>
+        <v>935</v>
       </c>
       <c r="K21" s="4">
+        <v>917</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1115</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1096</v>
+      </c>
+      <c r="N21" s="4">
         <v>1209</v>
       </c>
-      <c r="L21" s="4">
-        <v>686</v>
-      </c>
-      <c r="M21" s="4">
-        <v>630</v>
-      </c>
-      <c r="N21" s="4">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="2">
+        <v>1057</v>
+      </c>
+      <c r="P21" s="2">
+        <f>+L21</f>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
-        <f t="shared" ref="G22:N22" si="1">SUM(G18:G21)</f>
-        <v>3619</v>
+        <v>775</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="1"/>
-        <v>2171</v>
+        <v>491</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="1"/>
-        <v>3067</v>
+        <v>797</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="1"/>
-        <v>3024</v>
+        <v>784</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="1"/>
-        <v>3601</v>
+        <v>790</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="1"/>
-        <v>3243</v>
+        <v>760</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="1"/>
-        <v>3187</v>
+        <v>774</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="1"/>
-        <v>3786</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+      <c r="O22" s="2">
+        <v>815</v>
+      </c>
+      <c r="P22" s="2">
+        <f>+O22</f>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <f t="shared" ref="G23:N23" si="2">+G17-G22</f>
-        <v>-55</v>
+        <v>942</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="2"/>
-        <v>1544</v>
+        <v>208</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="2"/>
-        <v>599</v>
+        <v>646</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="2"/>
-        <v>855</v>
+        <v>603</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="2"/>
-        <v>362</v>
+        <v>1209</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="2"/>
-        <v>969</v>
+        <v>686</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="2"/>
-        <v>1240</v>
+        <v>630</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="2"/>
-        <v>939</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+      <c r="O23" s="2">
+        <v>657</v>
+      </c>
+      <c r="P23" s="2">
+        <f>+L23</f>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
+        <f t="shared" ref="G24:O24" si="1">SUM(G20:G23)</f>
+        <v>3619</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>2171</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="1"/>
+        <v>3067</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>3024</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="1"/>
+        <v>3601</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="1"/>
+        <v>3243</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="1"/>
+        <v>3187</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="1"/>
+        <v>3786</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="1"/>
+        <v>3197</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" ref="P24" si="2">SUM(P20:P23)</f>
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <f t="shared" ref="G25:O25" si="3">+G19-G24</f>
+        <v>-55</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="3"/>
+        <v>1544</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="3"/>
+        <v>599</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="3"/>
+        <v>855</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="3"/>
+        <v>362</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="3"/>
+        <v>969</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="3"/>
+        <v>1240</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="3"/>
+        <v>939</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="3"/>
+        <v>1399</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" ref="P25" si="4">+P19-P24</f>
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
         <f>-168+292</f>
         <v>124</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H26" s="4">
         <f>-144+273</f>
         <v>129</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I26" s="4">
         <f>-166-52</f>
         <v>-218</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J26" s="4">
         <f>-155+1331</f>
         <v>1176</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K26" s="4">
         <f>-124-678</f>
         <v>-802</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L26" s="4">
         <f>-136+420</f>
         <v>284</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M26" s="4">
         <f>-143+1851</f>
         <v>1708</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N26" s="4">
         <f>-117+256</f>
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="O26" s="2">
+        <f>-105+262</f>
+        <v>157</v>
+      </c>
+      <c r="P26" s="2">
+        <f>-105+262</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="4">
-        <f t="shared" ref="G25:N25" si="3">+G24+G23</f>
+      <c r="G27" s="4">
+        <f t="shared" ref="G27:P27" si="5">+G26+G25</f>
         <v>69</v>
       </c>
-      <c r="H25" s="4">
-        <f t="shared" si="3"/>
+      <c r="H27" s="4">
+        <f t="shared" si="5"/>
         <v>1673</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="3"/>
+      <c r="I27" s="4">
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
-      <c r="J25" s="4">
-        <f t="shared" si="3"/>
+      <c r="J27" s="4">
+        <f t="shared" si="5"/>
         <v>2031</v>
       </c>
-      <c r="K25" s="4">
-        <f t="shared" si="3"/>
+      <c r="K27" s="4">
+        <f t="shared" si="5"/>
         <v>-440</v>
       </c>
-      <c r="L25" s="4">
-        <f t="shared" si="3"/>
+      <c r="L27" s="4">
+        <f t="shared" si="5"/>
         <v>1253</v>
       </c>
-      <c r="M25" s="4">
-        <f t="shared" si="3"/>
+      <c r="M27" s="4">
+        <f t="shared" si="5"/>
         <v>2948</v>
       </c>
-      <c r="N25" s="4">
-        <f t="shared" si="3"/>
+      <c r="N27" s="4">
+        <f t="shared" si="5"/>
         <v>1078</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="O27" s="4">
+        <f t="shared" si="5"/>
+        <v>1556</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="5"/>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4">
         <f>55-36</f>
         <v>19</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H28" s="4">
         <f>65-4</f>
         <v>61</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I28" s="4">
         <f>-40+3-2</f>
         <v>-39</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J28" s="4">
         <v>133</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K28" s="4">
         <f>29+4-9</f>
         <v>24</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L28" s="4">
         <f>57+12-7</f>
         <v>62</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M28" s="4">
         <f>158-12+13</f>
         <v>159</v>
       </c>
-      <c r="N26" s="4">
-        <f>+N25*0.2</f>
+      <c r="N28" s="4">
+        <f>+N27*0.2</f>
         <v>215.60000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <f>+P27*0.2</f>
+        <v>376.20000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="4">
-        <f t="shared" ref="G27:N27" si="4">+G25-G26</f>
+      <c r="G29" s="4">
+        <f t="shared" ref="G29:P29" si="6">+G27-G28</f>
         <v>50</v>
       </c>
-      <c r="H27" s="4">
-        <f t="shared" si="4"/>
+      <c r="H29" s="4">
+        <f t="shared" si="6"/>
         <v>1612</v>
       </c>
-      <c r="I27" s="4">
-        <f t="shared" si="4"/>
+      <c r="I29" s="4">
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
-      <c r="J27" s="4">
-        <f t="shared" si="4"/>
+      <c r="J29" s="4">
+        <f t="shared" si="6"/>
         <v>1898</v>
       </c>
-      <c r="K27" s="4">
-        <f t="shared" si="4"/>
+      <c r="K29" s="4">
+        <f t="shared" si="6"/>
         <v>-464</v>
       </c>
-      <c r="L27" s="4">
-        <f t="shared" si="4"/>
+      <c r="L29" s="4">
+        <f t="shared" si="6"/>
         <v>1191</v>
       </c>
-      <c r="M27" s="4">
-        <f t="shared" si="4"/>
+      <c r="M29" s="4">
+        <f t="shared" si="6"/>
         <v>2789</v>
       </c>
-      <c r="N27" s="4">
-        <f t="shared" si="4"/>
+      <c r="N29" s="4">
+        <f t="shared" si="6"/>
         <v>862.4</v>
       </c>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="O29" s="4">
+        <f t="shared" si="6"/>
+        <v>1556</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="6"/>
+        <v>1504.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" ref="G28:N28" si="5">+G27/G29</f>
+      <c r="G30" s="5">
+        <f t="shared" ref="G30:P30" si="7">+G29/G31</f>
         <v>2.4881105636714956E-2</v>
       </c>
-      <c r="H28" s="5">
-        <f t="shared" si="5"/>
+      <c r="H30" s="5">
+        <f t="shared" si="7"/>
         <v>0.77527395497928364</v>
       </c>
-      <c r="I28" s="5">
-        <f t="shared" si="5"/>
+      <c r="I30" s="5">
+        <f t="shared" si="7"/>
         <v>0.19919572355238066</v>
       </c>
-      <c r="J28" s="5">
-        <f t="shared" si="5"/>
+      <c r="J30" s="5">
+        <f t="shared" si="7"/>
         <v>0.89446913633773795</v>
       </c>
-      <c r="K28" s="5">
-        <f t="shared" si="5"/>
+      <c r="K30" s="5">
+        <f t="shared" si="7"/>
         <v>-0.22305890678060616</v>
       </c>
-      <c r="L28" s="5">
-        <f t="shared" si="5"/>
+      <c r="L30" s="5">
+        <f t="shared" si="7"/>
         <v>0.55394859301243393</v>
       </c>
-      <c r="M28" s="5">
-        <f t="shared" si="5"/>
+      <c r="M30" s="5">
+        <f t="shared" si="7"/>
         <v>1.2945203126900124</v>
       </c>
-      <c r="N28" s="5">
-        <f t="shared" si="5"/>
+      <c r="N30" s="5">
+        <f t="shared" si="7"/>
         <v>0.40272229813217919</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="O30" s="5">
+        <f t="shared" si="7"/>
+        <v>0.73305700790250528</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="7"/>
+        <v>0.70893585185841257</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G31" s="4">
         <v>2009.557</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H31" s="4">
         <v>2079.2649999999999</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I31" s="4">
         <v>2108.4789999999998</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J31" s="4">
         <v>2121.9290000000001</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K31" s="4">
         <v>2080.1680000000001</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L31" s="4">
         <v>2150.0189999999998</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M31" s="4">
         <v>2154.4659999999999</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N31" s="4">
         <v>2141.4259999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="O31" s="4">
+        <v>2122.6179999999999</v>
+      </c>
+      <c r="P31" s="2">
+        <f>+O31</f>
+        <v>2122.6179999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="8">
-        <f>+K15/G15-1</f>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="11">
+        <f>+K17/G17-1</f>
         <v>0.14824889493369597</v>
       </c>
-      <c r="L31" s="8">
-        <f>+L15/H15-1</f>
+      <c r="L33" s="11">
+        <f>+L17/H17-1</f>
         <v>0.15926327193932832</v>
       </c>
-      <c r="M31" s="8">
-        <f>+M15/I15-1</f>
+      <c r="M33" s="11">
+        <f>+M17/I17-1</f>
         <v>0.20404649160568233</v>
       </c>
-      <c r="N31" s="8">
-        <f>+N15/J15-1</f>
+      <c r="N33" s="11">
+        <f>+N17/J17-1</f>
         <v>0.20360305958132052</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="O33" s="11">
+        <f>+O17/K17-1</f>
+        <v>0.13838712861514169</v>
+      </c>
+      <c r="P33" s="11">
+        <f>+P17/L17-1</f>
+        <v>0.17336448598130838</v>
+      </c>
+      <c r="Q33" s="11">
+        <f>+Q17/M17-1</f>
+        <v>-1</v>
+      </c>
+      <c r="R33" s="11">
+        <f>+R17/N17-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8">
         <f>+M5/I5-1</f>
         <v>0.16133329554150966</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N34" s="8">
         <f>+N5/J5-1</f>
         <v>0.17623419827012632</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="O34" s="8">
+        <f>+O5/K5-1</f>
+        <v>0.13723407080821226</v>
+      </c>
+      <c r="P34" s="8">
+        <f>+P5/L5-1</f>
+        <v>0.16380928544612683</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N33" s="8">
+      <c r="M35" s="8">
+        <f>+M9/I9-1</f>
+        <v>0.17492830807046289</v>
+      </c>
+      <c r="N35" s="8">
         <f>+N9/J9-1</f>
         <v>0.17954632833525563</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="O35" s="8">
+        <f>+O9/K9-1</f>
+        <v>0.1804043545878693</v>
+      </c>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M36" s="8">
         <f>+M6/I6-1</f>
         <v>0.17309948053398871</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N36" s="8">
         <f>+N6/J6-1</f>
         <v>0.18216230230749297</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="O36" s="8">
+        <f>+O6/K6-1</f>
+        <v>0.13454740224959827</v>
+      </c>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N35" s="8">
-        <f>+N11/J11-1</f>
+      <c r="M37" s="8">
+        <f>+M13/I13-1</f>
+        <v>0.26385328337605984</v>
+      </c>
+      <c r="N37" s="8">
+        <f>+N13/J13-1</f>
         <v>0.24814881704894343</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="O37" s="8">
+        <f>+O13/K13-1</f>
+        <v>0.15320433161725555</v>
+      </c>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="8">
-        <f>N11/N6</f>
+      <c r="K38" s="8">
+        <f>K13/K6</f>
+        <v>0.30171397964649171</v>
+      </c>
+      <c r="L38" s="8">
+        <f>L13/L6</f>
+        <v>0.29843339495961857</v>
+      </c>
+      <c r="M38" s="8">
+        <f>M13/M6</f>
+        <v>0.30516141319874296</v>
+      </c>
+      <c r="N38" s="8">
+        <f>N13/N6</f>
         <v>0.3031406263707343</v>
+      </c>
+      <c r="O38" s="8">
+        <f>O13/O6</f>
+        <v>0.30667547918043619</v>
+      </c>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" ref="K39:O39" si="8">K19/K17</f>
+        <v>0.39117559964465504</v>
+      </c>
+      <c r="L39" s="13">
+        <f t="shared" si="8"/>
+        <v>0.39364485981308411</v>
+      </c>
+      <c r="M39" s="13">
+        <f t="shared" si="8"/>
+        <v>0.39569181265641756</v>
+      </c>
+      <c r="N39" s="13">
+        <f t="shared" si="8"/>
+        <v>0.39509992474287148</v>
+      </c>
+      <c r="O39" s="13">
+        <f>O19/O17</f>
+        <v>0.39850862741697735</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="2">
+        <f>5893+1084+545+2172+7019+8460+302</f>
+        <v>25475</v>
+      </c>
+      <c r="O41" s="2">
+        <f>5132+894+1253+2215+7371+8746+338</f>
+        <v>25949</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="2">
+        <v>3333</v>
+      </c>
+      <c r="O42" s="2">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="2">
+        <v>1390</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="2">
+        <v>1952</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="2">
+        <v>1158</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="2">
+        <f>1125+8066</f>
+        <v>9191</v>
+      </c>
+      <c r="O46" s="2">
+        <f>1065+8069</f>
+        <v>9134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="2">
+        <v>6171</v>
+      </c>
+      <c r="O47" s="2">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="2">
+        <v>2574</v>
+      </c>
+      <c r="O48" s="2">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="2">
+        <f>SUM(N41:N48)</f>
+        <v>51244</v>
+      </c>
+      <c r="O49" s="2">
+        <f>SUM(O41:O48)</f>
+        <v>52822</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="2">
+        <v>858</v>
+      </c>
+      <c r="O51" s="2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="2">
+        <f>2754+7042</f>
+        <v>9796</v>
+      </c>
+      <c r="O52" s="2">
+        <f>2873+7599</f>
+        <v>10472</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="2">
+        <f>175+1454</f>
+        <v>1629</v>
+      </c>
+      <c r="O53" s="2">
+        <f>177+1447</f>
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="2">
+        <v>7689</v>
+      </c>
+      <c r="O54" s="2">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="2">
+        <v>8347</v>
+      </c>
+      <c r="O55" s="2">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="2">
+        <v>449</v>
+      </c>
+      <c r="O56" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="2">
+        <f>93+22383</f>
+        <v>22476</v>
+      </c>
+      <c r="O57" s="2">
+        <f>22812+93</f>
+        <v>22905</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="2">
+        <f>SUM(N51:N57)</f>
+        <v>51244</v>
+      </c>
+      <c r="O58" s="2">
+        <f>SUM(O51:O57)</f>
+        <v>52822</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="2">
+        <f>+N29</f>
+        <v>862.4</v>
+      </c>
+      <c r="O60" s="2">
+        <f>+O29</f>
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4">
+        <v>6901</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4">
+        <v>176</v>
+      </c>
+      <c r="O62" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4">
+        <v>14</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4">
+        <v>419</v>
+      </c>
+      <c r="O64" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4">
+        <v>-6128</v>
+      </c>
+      <c r="O65" s="2">
+        <v>-412</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4">
+        <f>-62+10-556</f>
+        <v>-608</v>
+      </c>
+      <c r="O66" s="2">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4">
+        <v>135</v>
+      </c>
+      <c r="O67" s="2">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4">
+        <v>68</v>
+      </c>
+      <c r="O68" s="2">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4">
+        <f>246-30+59+62+658-158-64</f>
+        <v>773</v>
+      </c>
+      <c r="O69" s="2">
+        <f>-123-497+43+6+675+430-56</f>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="2">
+        <f>SUM(N61:N69)</f>
+        <v>1750</v>
+      </c>
+      <c r="O70" s="2">
+        <f>SUM(O61:O69)</f>
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-44</v>
+      </c>
+      <c r="O72" s="2">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N73" s="3">
+        <f>-1-3020+4437</f>
+        <v>1416</v>
+      </c>
+      <c r="O73" s="2">
+        <f>-179-2540+2397</f>
+        <v>-322</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N74" s="3">
+        <v>61</v>
+      </c>
+      <c r="O74" s="2">
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="N75" s="2">
+        <f>SUM(N72:N74)</f>
+        <v>1433</v>
+      </c>
+      <c r="O75" s="2">
+        <f>SUM(O72:O74)</f>
+        <v>-542</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N77" s="3">
+        <v>53</v>
+      </c>
+      <c r="O77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N78" s="2">
+        <v>-50</v>
+      </c>
+      <c r="O78" s="2">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N79" s="2">
+        <v>-2000</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N80" s="2">
+        <v>-555</v>
+      </c>
+      <c r="O80" s="2">
+        <v>-1785</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N81" s="2">
+        <v>-851</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N82" s="2">
+        <v>6</v>
+      </c>
+      <c r="O82" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N83" s="2">
+        <f>SUM(N77:N82)</f>
+        <v>-3397</v>
+      </c>
+      <c r="O83" s="2">
+        <f>SUM(O77:O82)</f>
+        <v>-1862</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N84" s="2">
+        <v>-179</v>
+      </c>
+      <c r="O84" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N85" s="2">
+        <f>+N84+N83+N75+N70</f>
+        <v>-393</v>
+      </c>
+      <c r="O85" s="2">
+        <f>+O84+O83+O75+O70</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N88" s="2">
+        <f>+N70+N72</f>
+        <v>1706</v>
+      </c>
+      <c r="O88" s="2">
+        <f>+O70+O72</f>
+        <v>2250</v>
       </c>
     </row>
   </sheetData>
@@ -1684,5 +3013,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>